--- a/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2020.xlsx
+++ b/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Clean Data Project 3/Excel /Dem by race/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Data-Analysis---Project-3/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7CD529E-7AB9-9C47-AB0D-E4908C2BEFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DF1A2-E192-D349-AC21-3A46C856C689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="16200" xr2:uid="{69D77060-5613-C746-83BB-515EC219A196}"/>
+    <workbookView xWindow="8660" yWindow="1760" windowWidth="27240" windowHeight="16200" xr2:uid="{69D77060-5613-C746-83BB-515EC219A196}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Month Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Asian</t>
   </si>
@@ -59,9 +56,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>March 2020</t>
   </si>
   <si>
@@ -95,7 +89,7 @@
     <t>Unknown Date 2020</t>
   </si>
   <si>
-    <t>Total 2020</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -111,7 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -135,31 +128,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,350 +453,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD2897-DDAC-8847-A629-4750094E850E}">
-  <dimension ref="A3:H15"/>
+  <dimension ref="A3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B4" s="3">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3">
+        <v>539</v>
+      </c>
+      <c r="D4" s="3">
+        <v>724</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1056</v>
+      </c>
+      <c r="G4" s="3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" s="3">
+        <v>895</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3664</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6511</v>
+      </c>
+      <c r="E5" s="3">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5653</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>164</v>
-      </c>
-      <c r="C4">
-        <v>539</v>
-      </c>
-      <c r="D4">
-        <v>724</v>
-      </c>
-      <c r="E4">
+      <c r="B6" s="3">
+        <v>1194</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4072</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9218</v>
+      </c>
+      <c r="E6" s="3">
+        <v>125</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8053</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1564</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8138</v>
+      </c>
+      <c r="D7" s="3">
+        <v>29712</v>
+      </c>
+      <c r="E7" s="3">
+        <v>380</v>
+      </c>
+      <c r="F7" s="3">
+        <v>19253</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2632</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16734</v>
+      </c>
+      <c r="D8" s="3">
+        <v>68105</v>
+      </c>
+      <c r="E8" s="3">
+        <v>523</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40045</v>
+      </c>
+      <c r="G8" s="3">
+        <v>115883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>1056</v>
-      </c>
-      <c r="G4">
-        <v>497</v>
-      </c>
-      <c r="H4">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>895</v>
-      </c>
-      <c r="C5">
-        <v>3664</v>
-      </c>
-      <c r="D5">
-        <v>6511</v>
-      </c>
-      <c r="E5">
-        <v>90</v>
-      </c>
-      <c r="F5">
-        <v>5653</v>
-      </c>
-      <c r="G5">
-        <v>3085</v>
-      </c>
-      <c r="H5">
-        <v>19898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1194</v>
-      </c>
-      <c r="C6">
-        <v>4072</v>
-      </c>
-      <c r="D6">
-        <v>9218</v>
-      </c>
-      <c r="E6">
-        <v>125</v>
-      </c>
-      <c r="F6">
-        <v>8053</v>
-      </c>
-      <c r="G6">
-        <v>6651</v>
-      </c>
-      <c r="H6">
-        <v>29313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1564</v>
-      </c>
-      <c r="C7">
-        <v>8138</v>
-      </c>
-      <c r="D7">
-        <v>29712</v>
-      </c>
-      <c r="E7">
-        <v>380</v>
-      </c>
-      <c r="F7">
-        <v>19253</v>
-      </c>
-      <c r="G7">
-        <v>50619</v>
-      </c>
-      <c r="H7">
-        <v>109666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" s="3">
+        <v>2071</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11598</v>
+      </c>
+      <c r="D9" s="3">
+        <v>55616</v>
+      </c>
+      <c r="E9" s="3">
+        <v>386</v>
+      </c>
+      <c r="F9" s="3">
+        <v>31723</v>
+      </c>
+      <c r="G9" s="3">
+        <v>126784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>2632</v>
-      </c>
-      <c r="C8">
-        <v>16734</v>
-      </c>
-      <c r="D8">
-        <v>68105</v>
-      </c>
-      <c r="E8">
-        <v>523</v>
-      </c>
-      <c r="F8">
-        <v>40045</v>
-      </c>
-      <c r="G8">
-        <v>115883</v>
-      </c>
-      <c r="H8">
-        <v>243922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B10" s="3">
+        <v>1423</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6904</v>
+      </c>
+      <c r="D10" s="3">
+        <v>30769</v>
+      </c>
+      <c r="E10" s="3">
+        <v>278</v>
+      </c>
+      <c r="F10" s="3">
+        <v>18835</v>
+      </c>
+      <c r="G10" s="3">
+        <v>61802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>2071</v>
-      </c>
-      <c r="C9">
-        <v>11598</v>
-      </c>
-      <c r="D9">
-        <v>55616</v>
-      </c>
-      <c r="E9">
-        <v>386</v>
-      </c>
-      <c r="F9">
-        <v>31723</v>
-      </c>
-      <c r="G9">
-        <v>126784</v>
-      </c>
-      <c r="H9">
-        <v>228178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="3">
+        <v>2050</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8209</v>
+      </c>
+      <c r="D11" s="3">
+        <v>37911</v>
+      </c>
+      <c r="E11" s="3">
+        <v>437</v>
+      </c>
+      <c r="F11" s="3">
+        <v>26349</v>
+      </c>
+      <c r="G11" s="3">
+        <v>57775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>1423</v>
-      </c>
-      <c r="C10">
-        <v>6904</v>
-      </c>
-      <c r="D10">
-        <v>30769</v>
-      </c>
-      <c r="E10">
-        <v>278</v>
-      </c>
-      <c r="F10">
-        <v>18835</v>
-      </c>
-      <c r="G10">
-        <v>61802</v>
-      </c>
-      <c r="H10">
-        <v>120011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" s="3">
+        <v>4651</v>
+      </c>
+      <c r="C12" s="3">
+        <v>15423</v>
+      </c>
+      <c r="D12" s="3">
+        <v>68380</v>
+      </c>
+      <c r="E12" s="3">
+        <v>847</v>
+      </c>
+      <c r="F12" s="3">
+        <v>55635</v>
+      </c>
+      <c r="G12" s="3">
+        <v>108830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>2050</v>
-      </c>
-      <c r="C11">
-        <v>8209</v>
-      </c>
-      <c r="D11">
-        <v>37911</v>
-      </c>
-      <c r="E11">
-        <v>437</v>
-      </c>
-      <c r="F11">
-        <v>26349</v>
-      </c>
-      <c r="G11">
-        <v>57775</v>
-      </c>
-      <c r="H11">
-        <v>132731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" s="3">
+        <v>8877</v>
+      </c>
+      <c r="C13" s="3">
+        <v>27129</v>
+      </c>
+      <c r="D13" s="3">
+        <v>113686</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1235</v>
+      </c>
+      <c r="F13" s="3">
+        <v>94896</v>
+      </c>
+      <c r="G13" s="3">
+        <v>186617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>4651</v>
-      </c>
-      <c r="C12">
-        <v>15423</v>
-      </c>
-      <c r="D12">
-        <v>68380</v>
-      </c>
-      <c r="E12">
-        <v>847</v>
-      </c>
-      <c r="F12">
-        <v>55635</v>
-      </c>
-      <c r="G12">
-        <v>108830</v>
-      </c>
-      <c r="H12">
-        <v>253766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>8877</v>
-      </c>
-      <c r="C13">
-        <v>27129</v>
-      </c>
-      <c r="D13">
-        <v>113686</v>
-      </c>
-      <c r="E13">
-        <v>1235</v>
-      </c>
-      <c r="F13">
-        <v>94896</v>
-      </c>
-      <c r="G13">
-        <v>186617</v>
-      </c>
-      <c r="H13">
-        <v>432440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>1101</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>2867</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>13597</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>221</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>12415</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>17382</v>
-      </c>
-      <c r="H14">
-        <v>47583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>26622</v>
-      </c>
-      <c r="C15" s="2">
-        <v>105277</v>
-      </c>
-      <c r="D15" s="2">
-        <v>434229</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4533</v>
-      </c>
-      <c r="F15" s="2">
-        <v>313913</v>
-      </c>
-      <c r="G15" s="2">
-        <v>735925</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1620499</v>
       </c>
     </row>
   </sheetData>

--- a/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2020.xlsx
+++ b/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/Dem by race 2020.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plampinstein/utsa/homework/project 3/Data-Analysis---Project-3/Clean Data Project 3/Excel /Confirmed cases by demographics/Confirm cases dem by race/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DF1A2-E192-D349-AC21-3A46C856C689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD32E06-017B-2848-A1C8-27DAF01ECDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="1760" windowWidth="27240" windowHeight="16200" xr2:uid="{69D77060-5613-C746-83BB-515EC219A196}"/>
+    <workbookView xWindow="2160" yWindow="1760" windowWidth="27240" windowHeight="16200" xr2:uid="{69D77060-5613-C746-83BB-515EC219A196}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Asian</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD2897-DDAC-8847-A629-4750094E850E}">
-  <dimension ref="A3:G14"/>
+  <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,22 +493,22 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>164</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>539</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>724</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1056</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>497</v>
       </c>
     </row>
@@ -514,22 +516,22 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>895</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>3664</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>6511</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>90</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>5653</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>3085</v>
       </c>
     </row>
@@ -537,22 +539,22 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1194</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>4072</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>9218</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>125</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>8053</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>6651</v>
       </c>
     </row>
@@ -560,22 +562,22 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>1564</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>8138</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>29712</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>380</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>19253</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>50619</v>
       </c>
     </row>
@@ -583,22 +585,22 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>2632</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>16734</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>68105</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>523</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>40045</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>115883</v>
       </c>
     </row>
@@ -606,22 +608,22 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>2071</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>11598</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>55616</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>386</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>31723</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>126784</v>
       </c>
     </row>
@@ -629,22 +631,22 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1423</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>6904</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>30769</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>278</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>18835</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>61802</v>
       </c>
     </row>
@@ -652,22 +654,22 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>2050</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>8209</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>37911</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>437</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>26349</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>57775</v>
       </c>
     </row>
@@ -675,22 +677,22 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>4651</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>15423</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>68380</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>847</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>55635</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>108830</v>
       </c>
     </row>
@@ -698,22 +700,22 @@
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>8877</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>27129</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>113686</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>1235</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>94896</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>186617</v>
       </c>
     </row>
@@ -721,23 +723,52 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1101</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>2867</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>13597</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>221</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>12415</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>17382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B4:B14)</f>
+        <v>26622</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:G15" si="0">SUM(C4:C14)</f>
+        <v>105277</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>434229</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4533</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>313913</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>735925</v>
       </c>
     </row>
   </sheetData>
